--- a/src/test/resources/testFile/testverificationlink.xlsx
+++ b/src/test/resources/testFile/testverificationlink.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
   <si>
     <t>Quotation</t>
   </si>

--- a/src/test/resources/testFile/testverificationlink.xlsx
+++ b/src/test/resources/testFile/testverificationlink.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
   <si>
     <t>Quotation</t>
   </si>

--- a/src/test/resources/testFile/testverificationlink.xlsx
+++ b/src/test/resources/testFile/testverificationlink.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
   <si>
     <t>Quotation</t>
   </si>

--- a/src/test/resources/testFile/testverificationlink.xlsx
+++ b/src/test/resources/testFile/testverificationlink.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="89">
   <si>
     <t>Quotation</t>
   </si>

--- a/src/test/resources/testFile/testverificationlink.xlsx
+++ b/src/test/resources/testFile/testverificationlink.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
   <si>
     <t>Quotation</t>
   </si>

--- a/src/test/resources/testFile/testverificationlink.xlsx
+++ b/src/test/resources/testFile/testverificationlink.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>Quotation</t>
   </si>
